--- a/medicine/Pharmacie/Pravastatine/Pravastatine.xlsx
+++ b/medicine/Pharmacie/Pravastatine/Pravastatine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La pravastatine est un principe actif de la famille des statines ayant une action hypolipémiante  par inhibition de la HMG-Co A réductase. Elle est commercialisée dans les spécialités Elisor et Vasten, et en association avec de l'aspirine dans Pravadual. 
@@ -512,7 +524,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hypercholestérolémie essentielle pure
 Hyperlipidémie mixte
@@ -546,7 +560,9 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Troubles digestifs : constipation, nausée, crampes gastro-intestinales, troubles dyspeptiques, flatulences, diarrhées ;
 Myopathie avec mysalgie sans gravité, élévation des CK (créatine kinases) atteignant parfois 10 fois la normale et imposant l'arrêt du traitement ;
